--- a/GDC_01.01_input.xlsx
+++ b/GDC_01.01_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verti\Desktop\misilnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E4CCAB-44B8-40BF-A527-0CFE0F235369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC938F-7A17-4731-8AE1-F298B18CD57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{24CFE6BC-2681-4150-9049-8A8B5AA2A626}"/>
+    <workbookView xWindow="348" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{24CFE6BC-2681-4150-9049-8A8B5AA2A626}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE1D04-1E18-49E4-A463-124A0BC9E43B}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>190</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>190</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>190</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <v>190</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
         <v>190</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
         <v>190</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
         <v>190</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>190</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
         <v>190</v>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
         <v>190</v>
@@ -733,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E15">
         <v>150</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E16">
         <v>150</v>
@@ -773,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -793,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E18">
         <v>150</v>
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -833,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E20">
         <v>150</v>
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E21">
         <v>150</v>
@@ -873,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E22">
         <v>150</v>
@@ -893,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E23">
         <v>150</v>
@@ -913,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E24">
         <v>150</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>190</v>
@@ -950,10 +950,10 @@
         <v>2.1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D26">
         <v>190</v>
@@ -970,10 +970,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D27">
         <v>190</v>
@@ -990,10 +990,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
         <v>190</v>
@@ -1010,10 +1010,10 @@
         <v>2.4</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D29">
         <v>190</v>
@@ -1030,10 +1030,10 @@
         <v>2.5</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
         <v>190</v>
@@ -1050,10 +1050,10 @@
         <v>2.6</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
         <v>190</v>
@@ -1070,10 +1070,10 @@
         <v>2.7</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D32">
         <v>190</v>
@@ -1090,10 +1090,10 @@
         <v>2.8</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D33">
         <v>190</v>
@@ -1110,13 +1110,13 @@
         <v>2.9</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D34">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E34">
         <v>150</v>
@@ -1130,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D35">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E35">
         <v>150</v>
@@ -1150,13 +1150,13 @@
         <v>3.1</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D36">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E36">
         <v>150</v>
@@ -1170,13 +1170,13 @@
         <v>3.2</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D37">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E37">
         <v>150</v>
@@ -1190,13 +1190,13 @@
         <v>3.3</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D38">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E38">
         <v>150</v>
@@ -1210,13 +1210,13 @@
         <v>3.4</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D39">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E39">
         <v>150</v>
@@ -1230,13 +1230,13 @@
         <v>3.5</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D40">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -1250,13 +1250,13 @@
         <v>3.6</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D41">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E41">
         <v>150</v>
@@ -1270,13 +1270,13 @@
         <v>3.7</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E42">
         <v>150</v>
@@ -1290,13 +1290,13 @@
         <v>3.8</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D43">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E43">
         <v>150</v>
@@ -1310,13 +1310,13 @@
         <v>3.9</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D44">
-        <v>190</v>
+        <v>-15</v>
       </c>
       <c r="E44">
         <v>150</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D45">
         <v>190</v>
@@ -1353,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E46">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E47">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E48">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E49">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1453,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E51">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E52">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E53">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>190</v>
+        <v>5000</v>
       </c>
       <c r="E54">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>150</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D65">
         <v>190</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D66">
         <v>190</v>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D67">
         <v>190</v>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D68">
         <v>190</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D69">
         <v>190</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D70">
         <v>190</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D71">
         <v>190</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D72">
         <v>190</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D73">
         <v>190</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D74">
         <v>190</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D75">
         <v>190</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D76">
         <v>190</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D77">
         <v>190</v>

--- a/GDC_01.01_input.xlsx
+++ b/GDC_01.01_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\capgemini\A Y U\final project\misilnl-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0CF634-318A-4F63-BADC-19862C2679F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DA260C-2792-4D0A-9B40-8410DFAAF819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24CFE6BC-2681-4150-9049-8A8B5AA2A626}"/>
   </bookViews>
@@ -96,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -175,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,8 +196,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -205,14 +219,20 @@
     <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="11" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="10" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="9"/>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="0" xfId="9" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Énfasis4" xfId="6" builtinId="42"/>
     <cellStyle name="20% - Énfasis6" xfId="7" builtinId="50"/>
+    <cellStyle name="40% - Énfasis1" xfId="8" builtinId="31"/>
     <cellStyle name="40% - Énfasis2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - Énfasis3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Énfasis6" xfId="9" builtinId="51"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -528,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DE1D04-1E18-49E4-A463-124A0BC9E43B}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,402 +2029,402 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="17">
         <v>7</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>190</v>
-      </c>
-      <c r="E75">
-        <v>150</v>
-      </c>
-      <c r="F75">
+      <c r="B75" s="18">
+        <v>1</v>
+      </c>
+      <c r="C75" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D75" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E75" s="18">
+        <v>150</v>
+      </c>
+      <c r="F75" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="18">
         <v>7.1</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>190</v>
-      </c>
-      <c r="E76">
-        <v>150</v>
-      </c>
-      <c r="F76">
+      <c r="B76" s="18">
+        <v>1</v>
+      </c>
+      <c r="C76" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D76" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="18">
+        <v>150</v>
+      </c>
+      <c r="F76" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="18">
         <v>7.2</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>190</v>
-      </c>
-      <c r="E77">
-        <v>150</v>
-      </c>
-      <c r="F77">
+      <c r="B77" s="18">
+        <v>1</v>
+      </c>
+      <c r="C77" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D77" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="18">
+        <v>150</v>
+      </c>
+      <c r="F77" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="17">
         <v>7.3</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>190</v>
-      </c>
-      <c r="E78">
-        <v>150</v>
-      </c>
-      <c r="F78">
+      <c r="B78" s="18">
+        <v>1</v>
+      </c>
+      <c r="C78" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D78" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E78" s="18">
+        <v>150</v>
+      </c>
+      <c r="F78" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="18">
         <v>7.4</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>190</v>
-      </c>
-      <c r="E79">
-        <v>150</v>
-      </c>
-      <c r="F79">
+      <c r="B79" s="18">
+        <v>1</v>
+      </c>
+      <c r="C79" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D79" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E79" s="18">
+        <v>150</v>
+      </c>
+      <c r="F79" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="18">
         <v>7.5</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>190</v>
-      </c>
-      <c r="E80">
-        <v>150</v>
-      </c>
-      <c r="F80">
+      <c r="B80" s="18">
+        <v>1</v>
+      </c>
+      <c r="C80" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D80" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E80" s="18">
+        <v>150</v>
+      </c>
+      <c r="F80" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="17">
         <v>7.6</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>190</v>
-      </c>
-      <c r="E81">
-        <v>150</v>
-      </c>
-      <c r="F81">
+      <c r="B81" s="18">
+        <v>1</v>
+      </c>
+      <c r="C81" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D81" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="18">
+        <v>150</v>
+      </c>
+      <c r="F81" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="18">
         <v>7.7</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>190</v>
-      </c>
-      <c r="E82">
-        <v>150</v>
-      </c>
-      <c r="F82">
+      <c r="B82" s="18">
+        <v>1</v>
+      </c>
+      <c r="C82" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D82" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E82" s="18">
+        <v>150</v>
+      </c>
+      <c r="F82" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="18">
         <v>7.8</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>190</v>
-      </c>
-      <c r="E83">
-        <v>150</v>
-      </c>
-      <c r="F83">
+      <c r="B83" s="18">
+        <v>1</v>
+      </c>
+      <c r="C83" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D83" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="18">
+        <v>150</v>
+      </c>
+      <c r="F83" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="17">
         <v>7.9</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>190</v>
-      </c>
-      <c r="E84">
-        <v>150</v>
-      </c>
-      <c r="F84">
+      <c r="B84" s="18">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="D84" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E84" s="18">
+        <v>150</v>
+      </c>
+      <c r="F84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="19">
         <v>8</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>190</v>
-      </c>
-      <c r="E85">
-        <v>150</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
+      <c r="B85" s="19">
+        <v>1</v>
+      </c>
+      <c r="C85" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D85" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E85" s="19">
+        <v>150</v>
+      </c>
+      <c r="F85" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="19">
         <v>8.1</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>190</v>
-      </c>
-      <c r="E86">
-        <v>150</v>
-      </c>
-      <c r="F86">
+      <c r="B86" s="19">
+        <v>1</v>
+      </c>
+      <c r="C86" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D86" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E86" s="19">
+        <v>150</v>
+      </c>
+      <c r="F86" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>190</v>
-      </c>
-      <c r="E87">
-        <v>150</v>
-      </c>
-      <c r="F87">
+      <c r="B87" s="19">
+        <v>1</v>
+      </c>
+      <c r="C87" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D87" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E87" s="19">
+        <v>150</v>
+      </c>
+      <c r="F87" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>190</v>
-      </c>
-      <c r="E88">
-        <v>150</v>
-      </c>
-      <c r="F88">
+      <c r="B88" s="19">
+        <v>1</v>
+      </c>
+      <c r="C88" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D88" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E88" s="19">
+        <v>150</v>
+      </c>
+      <c r="F88" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="19">
         <v>8.4</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>190</v>
-      </c>
-      <c r="E89">
-        <v>150</v>
-      </c>
-      <c r="F89">
+      <c r="B89" s="19">
+        <v>1</v>
+      </c>
+      <c r="C89" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D89" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E89" s="19">
+        <v>150</v>
+      </c>
+      <c r="F89" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="20">
         <v>8.5</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>190</v>
-      </c>
-      <c r="E90">
-        <v>150</v>
-      </c>
-      <c r="F90">
+      <c r="B90" s="19">
+        <v>1</v>
+      </c>
+      <c r="C90" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D90" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E90" s="19">
+        <v>150</v>
+      </c>
+      <c r="F90" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="19">
         <v>8.6</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>190</v>
-      </c>
-      <c r="E91">
-        <v>150</v>
-      </c>
-      <c r="F91">
+      <c r="B91" s="19">
+        <v>1</v>
+      </c>
+      <c r="C91" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D91" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E91" s="19">
+        <v>150</v>
+      </c>
+      <c r="F91" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>190</v>
-      </c>
-      <c r="E92">
-        <v>150</v>
-      </c>
-      <c r="F92">
+      <c r="B92" s="19">
+        <v>1</v>
+      </c>
+      <c r="C92" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D92" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E92" s="19">
+        <v>150</v>
+      </c>
+      <c r="F92" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>190</v>
-      </c>
-      <c r="E93">
-        <v>150</v>
-      </c>
-      <c r="F93">
+      <c r="B93" s="19">
+        <v>1</v>
+      </c>
+      <c r="C93" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D93" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E93" s="19">
+        <v>150</v>
+      </c>
+      <c r="F93" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="19">
         <v>8.9</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>190</v>
-      </c>
-      <c r="E94">
-        <v>150</v>
-      </c>
-      <c r="F94">
+      <c r="B94" s="19">
+        <v>1</v>
+      </c>
+      <c r="C94" s="19">
+        <v>44.2</v>
+      </c>
+      <c r="D94" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="19">
+        <v>150</v>
+      </c>
+      <c r="F94" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2413,16 +2433,16 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2433,16 +2453,16 @@
         <v>9.1</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2453,16 +2473,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2473,16 +2493,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2493,16 +2513,16 @@
         <v>9.4</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2513,16 +2533,16 @@
         <v>9.5</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2533,16 +2553,16 @@
         <v>9.6</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2553,16 +2573,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2573,16 +2593,16 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2593,16 +2613,16 @@
         <v>9.9</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2613,16 +2633,16 @@
         <v>10</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
